--- a/natmiOut/OldD7/LR-pairs_lrc2p/Sema6d-Plxna1.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Sema6d-Plxna1.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>42.1145242863308</v>
+        <v>46.96651666666666</v>
       </c>
       <c r="H2">
-        <v>42.1145242863308</v>
+        <v>140.89955</v>
       </c>
       <c r="I2">
-        <v>0.6228350783282196</v>
+        <v>0.5808027674561179</v>
       </c>
       <c r="J2">
-        <v>0.6228350783282196</v>
+        <v>0.5808027674561179</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.39581255946687</v>
+        <v>9.788187000000001</v>
       </c>
       <c r="N2">
-        <v>8.39581255946687</v>
+        <v>29.364561</v>
       </c>
       <c r="O2">
-        <v>0.1608681288021958</v>
+        <v>0.1731793198378281</v>
       </c>
       <c r="P2">
-        <v>0.1608681288021958</v>
+        <v>0.1731793198378281</v>
       </c>
       <c r="Q2">
-        <v>353.5856519391486</v>
+        <v>459.7170478719499</v>
       </c>
       <c r="R2">
-        <v>353.5856519391486</v>
+        <v>4137.453430847549</v>
       </c>
       <c r="S2">
-        <v>0.1001943136030297</v>
+        <v>0.1005830282279788</v>
       </c>
       <c r="T2">
-        <v>0.1001943136030297</v>
+        <v>0.1005830282279788</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>42.1145242863308</v>
+        <v>46.96651666666666</v>
       </c>
       <c r="H3">
-        <v>42.1145242863308</v>
+        <v>140.89955</v>
       </c>
       <c r="I3">
-        <v>0.6228350783282196</v>
+        <v>0.5808027674561179</v>
       </c>
       <c r="J3">
-        <v>0.6228350783282196</v>
+        <v>0.5808027674561179</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>18.0302252972441</v>
+        <v>18.05628333333334</v>
       </c>
       <c r="N3">
-        <v>18.0302252972441</v>
+        <v>54.16885000000001</v>
       </c>
       <c r="O3">
-        <v>0.3454684802579553</v>
+        <v>0.3194641527042525</v>
       </c>
       <c r="P3">
-        <v>0.3454684802579553</v>
+        <v>0.3194641527042525</v>
       </c>
       <c r="Q3">
-        <v>759.3343611688026</v>
+        <v>848.0407321130555</v>
       </c>
       <c r="R3">
-        <v>759.3343611688026</v>
+        <v>7632.3665890175</v>
       </c>
       <c r="S3">
-        <v>0.2151698879613946</v>
+        <v>0.1855456639936537</v>
       </c>
       <c r="T3">
-        <v>0.2151698879613946</v>
+        <v>0.1855456639936537</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>42.1145242863308</v>
+        <v>46.96651666666666</v>
       </c>
       <c r="H4">
-        <v>42.1145242863308</v>
+        <v>140.89955</v>
       </c>
       <c r="I4">
-        <v>0.6228350783282196</v>
+        <v>0.5808027674561179</v>
       </c>
       <c r="J4">
-        <v>0.6228350783282196</v>
+        <v>0.5808027674561179</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>13.1214966533206</v>
+        <v>14.510488</v>
       </c>
       <c r="N4">
-        <v>13.1214966533206</v>
+        <v>43.531464</v>
       </c>
       <c r="O4">
-        <v>0.2514146902105204</v>
+        <v>0.2567295089841425</v>
       </c>
       <c r="P4">
-        <v>0.2514146902105204</v>
+        <v>0.2567295089841425</v>
       </c>
       <c r="Q4">
-        <v>552.6055894792787</v>
+        <v>681.5070764934666</v>
       </c>
       <c r="R4">
-        <v>552.6055894792787</v>
+        <v>6133.563688441199</v>
       </c>
       <c r="S4">
-        <v>0.1565898882701345</v>
+        <v>0.1491092093056403</v>
       </c>
       <c r="T4">
-        <v>0.1565898882701345</v>
+        <v>0.1491092093056403</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>42.1145242863308</v>
+        <v>46.96651666666666</v>
       </c>
       <c r="H5">
-        <v>42.1145242863308</v>
+        <v>140.89955</v>
       </c>
       <c r="I5">
-        <v>0.6228350783282196</v>
+        <v>0.5808027674561179</v>
       </c>
       <c r="J5">
-        <v>0.6228350783282196</v>
+        <v>0.5808027674561179</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>12.6431176842909</v>
+        <v>14.165572</v>
       </c>
       <c r="N5">
-        <v>12.6431176842909</v>
+        <v>42.496716</v>
       </c>
       <c r="O5">
-        <v>0.2422487007293286</v>
+        <v>0.2506270184737769</v>
       </c>
       <c r="P5">
-        <v>0.2422487007293286</v>
+        <v>0.2506270184737769</v>
       </c>
       <c r="Q5">
-        <v>532.4588867700076</v>
+        <v>665.3075734308665</v>
       </c>
       <c r="R5">
-        <v>532.4588867700076</v>
+        <v>5987.768160877799</v>
       </c>
       <c r="S5">
-        <v>0.1508809884936608</v>
+        <v>0.1455648659288452</v>
       </c>
       <c r="T5">
-        <v>0.1508809884936608</v>
+        <v>0.1455648659288452</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>14.2013244349873</v>
+        <v>14.34807866666667</v>
       </c>
       <c r="H6">
-        <v>14.2013244349873</v>
+        <v>43.04423600000001</v>
       </c>
       <c r="I6">
-        <v>0.2100245263770115</v>
+        <v>0.1774328689611448</v>
       </c>
       <c r="J6">
-        <v>0.2100245263770115</v>
+        <v>0.1774328689611448</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.39581255946687</v>
+        <v>9.788187000000001</v>
       </c>
       <c r="N6">
-        <v>8.39581255946687</v>
+        <v>29.364561</v>
       </c>
       <c r="O6">
-        <v>0.1608681288021958</v>
+        <v>0.1731793198378281</v>
       </c>
       <c r="P6">
-        <v>0.1608681288021958</v>
+        <v>0.1731793198378281</v>
       </c>
       <c r="Q6">
-        <v>119.2316580523301</v>
+        <v>140.441677080044</v>
       </c>
       <c r="R6">
-        <v>119.2316580523301</v>
+        <v>1263.975093720396</v>
       </c>
       <c r="S6">
-        <v>0.03378625256083725</v>
+        <v>0.03072770356356554</v>
       </c>
       <c r="T6">
-        <v>0.03378625256083725</v>
+        <v>0.03072770356356554</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>14.2013244349873</v>
+        <v>14.34807866666667</v>
       </c>
       <c r="H7">
-        <v>14.2013244349873</v>
+        <v>43.04423600000001</v>
       </c>
       <c r="I7">
-        <v>0.2100245263770115</v>
+        <v>0.1774328689611448</v>
       </c>
       <c r="J7">
-        <v>0.2100245263770115</v>
+        <v>0.1774328689611448</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>18.0302252972441</v>
+        <v>18.05628333333334</v>
       </c>
       <c r="N7">
-        <v>18.0302252972441</v>
+        <v>54.16885000000001</v>
       </c>
       <c r="O7">
-        <v>0.3454684802579553</v>
+        <v>0.3194641527042525</v>
       </c>
       <c r="P7">
-        <v>0.3454684802579553</v>
+        <v>0.3194641527042525</v>
       </c>
       <c r="Q7">
-        <v>256.0530790820788</v>
+        <v>259.072973694289</v>
       </c>
       <c r="R7">
-        <v>256.0530790820788</v>
+        <v>2331.6567632486</v>
       </c>
       <c r="S7">
-        <v>0.07255685394436301</v>
+        <v>0.05668344114455679</v>
       </c>
       <c r="T7">
-        <v>0.07255685394436301</v>
+        <v>0.05668344114455678</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>14.2013244349873</v>
+        <v>14.34807866666667</v>
       </c>
       <c r="H8">
-        <v>14.2013244349873</v>
+        <v>43.04423600000001</v>
       </c>
       <c r="I8">
-        <v>0.2100245263770115</v>
+        <v>0.1774328689611448</v>
       </c>
       <c r="J8">
-        <v>0.2100245263770115</v>
+        <v>0.1774328689611448</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>13.1214966533206</v>
+        <v>14.510488</v>
       </c>
       <c r="N8">
-        <v>13.1214966533206</v>
+        <v>43.531464</v>
       </c>
       <c r="O8">
-        <v>0.2514146902105204</v>
+        <v>0.2567295089841425</v>
       </c>
       <c r="P8">
-        <v>0.2514146902105204</v>
+        <v>0.2567295089841425</v>
       </c>
       <c r="Q8">
-        <v>186.3426310464059</v>
+        <v>208.1976233157227</v>
       </c>
       <c r="R8">
-        <v>186.3426310464059</v>
+        <v>1873.778609841504</v>
       </c>
       <c r="S8">
-        <v>0.05280325123568761</v>
+        <v>0.04555225332604241</v>
       </c>
       <c r="T8">
-        <v>0.05280325123568761</v>
+        <v>0.0455522533260424</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>14.2013244349873</v>
+        <v>14.34807866666667</v>
       </c>
       <c r="H9">
-        <v>14.2013244349873</v>
+        <v>43.04423600000001</v>
       </c>
       <c r="I9">
-        <v>0.2100245263770115</v>
+        <v>0.1774328689611448</v>
       </c>
       <c r="J9">
-        <v>0.2100245263770115</v>
+        <v>0.1774328689611448</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>12.6431176842909</v>
+        <v>14.165572</v>
       </c>
       <c r="N9">
-        <v>12.6431176842909</v>
+        <v>42.496716</v>
       </c>
       <c r="O9">
-        <v>0.2422487007293286</v>
+        <v>0.2506270184737769</v>
       </c>
       <c r="P9">
-        <v>0.2422487007293286</v>
+        <v>0.2506270184737769</v>
       </c>
       <c r="Q9">
-        <v>179.5490161043404</v>
+        <v>203.2487414143307</v>
       </c>
       <c r="R9">
-        <v>179.5490161043404</v>
+        <v>1829.238672728976</v>
       </c>
       <c r="S9">
-        <v>0.05087816863612363</v>
+        <v>0.04446947092698007</v>
       </c>
       <c r="T9">
-        <v>0.05087816863612363</v>
+        <v>0.04446947092698007</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.57275006497853</v>
+        <v>1.746361333333333</v>
       </c>
       <c r="H10">
-        <v>1.57275006497853</v>
+        <v>5.239084</v>
       </c>
       <c r="I10">
-        <v>0.02325952688558694</v>
+        <v>0.02159605538935411</v>
       </c>
       <c r="J10">
-        <v>0.02325952688558694</v>
+        <v>0.02159605538935411</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.39581255946687</v>
+        <v>9.788187000000001</v>
       </c>
       <c r="N10">
-        <v>8.39581255946687</v>
+        <v>29.364561</v>
       </c>
       <c r="O10">
-        <v>0.1608681288021958</v>
+        <v>0.1731793198378281</v>
       </c>
       <c r="P10">
-        <v>0.1608681288021958</v>
+        <v>0.1731793198378281</v>
       </c>
       <c r="Q10">
-        <v>13.20451474844908</v>
+        <v>17.093711300236</v>
       </c>
       <c r="R10">
-        <v>13.20451474844908</v>
+        <v>153.843401702124</v>
       </c>
       <c r="S10">
-        <v>0.003741716566908736</v>
+        <v>0.003739990183508408</v>
       </c>
       <c r="T10">
-        <v>0.003741716566908736</v>
+        <v>0.003739990183508407</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.57275006497853</v>
+        <v>1.746361333333333</v>
       </c>
       <c r="H11">
-        <v>1.57275006497853</v>
+        <v>5.239084</v>
       </c>
       <c r="I11">
-        <v>0.02325952688558694</v>
+        <v>0.02159605538935411</v>
       </c>
       <c r="J11">
-        <v>0.02325952688558694</v>
+        <v>0.02159605538935411</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>18.0302252972441</v>
+        <v>18.05628333333334</v>
       </c>
       <c r="N11">
-        <v>18.0302252972441</v>
+        <v>54.16885000000001</v>
       </c>
       <c r="O11">
-        <v>0.3454684802579553</v>
+        <v>0.3194641527042525</v>
       </c>
       <c r="P11">
-        <v>0.3454684802579553</v>
+        <v>0.3194641527042525</v>
       </c>
       <c r="Q11">
-        <v>28.35703800781819</v>
+        <v>31.53279503704445</v>
       </c>
       <c r="R11">
-        <v>28.35703800781819</v>
+        <v>283.7951553334</v>
       </c>
       <c r="S11">
-        <v>0.008035433404682771</v>
+        <v>0.006899165536714118</v>
       </c>
       <c r="T11">
-        <v>0.008035433404682771</v>
+        <v>0.006899165536714115</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.57275006497853</v>
+        <v>1.746361333333333</v>
       </c>
       <c r="H12">
-        <v>1.57275006497853</v>
+        <v>5.239084</v>
       </c>
       <c r="I12">
-        <v>0.02325952688558694</v>
+        <v>0.02159605538935411</v>
       </c>
       <c r="J12">
-        <v>0.02325952688558694</v>
+        <v>0.02159605538935411</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>13.1214966533206</v>
+        <v>14.510488</v>
       </c>
       <c r="N12">
-        <v>13.1214966533206</v>
+        <v>43.531464</v>
       </c>
       <c r="O12">
-        <v>0.2514146902105204</v>
+        <v>0.2567295089841425</v>
       </c>
       <c r="P12">
-        <v>0.2514146902105204</v>
+        <v>0.2567295089841425</v>
       </c>
       <c r="Q12">
-        <v>20.63683471412554</v>
+        <v>25.34055517099734</v>
       </c>
       <c r="R12">
-        <v>20.63683471412554</v>
+        <v>228.064996538976</v>
       </c>
       <c r="S12">
-        <v>0.00584778674638311</v>
+        <v>0.005544344696103226</v>
       </c>
       <c r="T12">
-        <v>0.00584778674638311</v>
+        <v>0.005544344696103225</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.57275006497853</v>
+        <v>1.746361333333333</v>
       </c>
       <c r="H13">
-        <v>1.57275006497853</v>
+        <v>5.239084</v>
       </c>
       <c r="I13">
-        <v>0.02325952688558694</v>
+        <v>0.02159605538935411</v>
       </c>
       <c r="J13">
-        <v>0.02325952688558694</v>
+        <v>0.02159605538935411</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>12.6431176842909</v>
+        <v>14.165572</v>
       </c>
       <c r="N13">
-        <v>12.6431176842909</v>
+        <v>42.496716</v>
       </c>
       <c r="O13">
-        <v>0.2422487007293286</v>
+        <v>0.2506270184737769</v>
       </c>
       <c r="P13">
-        <v>0.2422487007293286</v>
+        <v>0.2506270184737769</v>
       </c>
       <c r="Q13">
-        <v>19.88446415949971</v>
+        <v>24.73820720534933</v>
       </c>
       <c r="R13">
-        <v>19.88446415949971</v>
+        <v>222.643864848144</v>
       </c>
       <c r="S13">
-        <v>0.005634590167612323</v>
+        <v>0.005412554973028362</v>
       </c>
       <c r="T13">
-        <v>0.005634590167612323</v>
+        <v>0.005412554973028361</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>9.728858469599009</v>
+        <v>17.80387266666667</v>
       </c>
       <c r="H14">
-        <v>9.728858469599009</v>
+        <v>53.411618</v>
       </c>
       <c r="I14">
-        <v>0.143880868409182</v>
+        <v>0.2201683081933832</v>
       </c>
       <c r="J14">
-        <v>0.143880868409182</v>
+        <v>0.2201683081933832</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>8.39581255946687</v>
+        <v>9.788187000000001</v>
       </c>
       <c r="N14">
-        <v>8.39581255946687</v>
+        <v>29.364561</v>
       </c>
       <c r="O14">
-        <v>0.1608681288021958</v>
+        <v>0.1731793198378281</v>
       </c>
       <c r="P14">
-        <v>0.1608681288021958</v>
+        <v>0.1731793198378281</v>
       </c>
       <c r="Q14">
-        <v>81.68167212833499</v>
+        <v>174.267634985522</v>
       </c>
       <c r="R14">
-        <v>81.68167212833499</v>
+        <v>1568.408714869698</v>
       </c>
       <c r="S14">
-        <v>0.02314584607142008</v>
+        <v>0.03812859786277543</v>
       </c>
       <c r="T14">
-        <v>0.02314584607142008</v>
+        <v>0.03812859786277543</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>9.728858469599009</v>
+        <v>17.80387266666667</v>
       </c>
       <c r="H15">
-        <v>9.728858469599009</v>
+        <v>53.411618</v>
       </c>
       <c r="I15">
-        <v>0.143880868409182</v>
+        <v>0.2201683081933832</v>
       </c>
       <c r="J15">
-        <v>0.143880868409182</v>
+        <v>0.2201683081933832</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>18.0302252972441</v>
+        <v>18.05628333333334</v>
       </c>
       <c r="N15">
-        <v>18.0302252972441</v>
+        <v>54.16885000000001</v>
       </c>
       <c r="O15">
-        <v>0.3454684802579553</v>
+        <v>0.3194641527042525</v>
       </c>
       <c r="P15">
-        <v>0.3454684802579553</v>
+        <v>0.3194641527042525</v>
       </c>
       <c r="Q15">
-        <v>175.4135100918716</v>
+        <v>321.4717692999223</v>
       </c>
       <c r="R15">
-        <v>175.4135100918716</v>
+        <v>2893.2459236993</v>
       </c>
       <c r="S15">
-        <v>0.04970630494751496</v>
+        <v>0.07033588202932792</v>
       </c>
       <c r="T15">
-        <v>0.04970630494751496</v>
+        <v>0.0703358820293279</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>9.728858469599009</v>
+        <v>17.80387266666667</v>
       </c>
       <c r="H16">
-        <v>9.728858469599009</v>
+        <v>53.411618</v>
       </c>
       <c r="I16">
-        <v>0.143880868409182</v>
+        <v>0.2201683081933832</v>
       </c>
       <c r="J16">
-        <v>0.143880868409182</v>
+        <v>0.2201683081933832</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>13.1214966533206</v>
+        <v>14.510488</v>
       </c>
       <c r="N16">
-        <v>13.1214966533206</v>
+        <v>43.531464</v>
       </c>
       <c r="O16">
-        <v>0.2514146902105204</v>
+        <v>0.2567295089841425</v>
       </c>
       <c r="P16">
-        <v>0.2514146902105204</v>
+        <v>0.2567295089841425</v>
       </c>
       <c r="Q16">
-        <v>127.6571838494732</v>
+        <v>258.3428806831947</v>
       </c>
       <c r="R16">
-        <v>127.6571838494732</v>
+        <v>2325.085926148752</v>
       </c>
       <c r="S16">
-        <v>0.03617376395831515</v>
+        <v>0.05652370165635665</v>
       </c>
       <c r="T16">
-        <v>0.03617376395831515</v>
+        <v>0.05652370165635664</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>9.728858469599009</v>
+        <v>17.80387266666667</v>
       </c>
       <c r="H17">
-        <v>9.728858469599009</v>
+        <v>53.411618</v>
       </c>
       <c r="I17">
-        <v>0.143880868409182</v>
+        <v>0.2201683081933832</v>
       </c>
       <c r="J17">
-        <v>0.143880868409182</v>
+        <v>0.2201683081933832</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>12.6431176842909</v>
+        <v>14.165572</v>
       </c>
       <c r="N17">
-        <v>12.6431176842909</v>
+        <v>42.496716</v>
       </c>
       <c r="O17">
-        <v>0.2422487007293286</v>
+        <v>0.2506270184737769</v>
       </c>
       <c r="P17">
-        <v>0.2422487007293286</v>
+        <v>0.2506270184737769</v>
       </c>
       <c r="Q17">
-        <v>123.0031025649505</v>
+        <v>252.2020401384987</v>
       </c>
       <c r="R17">
-        <v>123.0031025649505</v>
+        <v>2269.818361246488</v>
       </c>
       <c r="S17">
-        <v>0.03485495343193184</v>
+        <v>0.05518012664492326</v>
       </c>
       <c r="T17">
-        <v>0.03485495343193184</v>
+        <v>0.05518012664492326</v>
       </c>
     </row>
   </sheetData>
